--- a/result/TrailATR/summary_NSDQ_M5_2020-2024_2.xlsx
+++ b/result/TrailATR/summary_NSDQ_M5_2020-2024_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,10 +730,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -752,45 +752,111 @@
         <v>2024</v>
       </c>
       <c r="G5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>85</v>
+      </c>
+      <c r="J5" t="n">
         <v>80</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
+        <v>53.19999999992797</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1024.999999999997</v>
+      </c>
+      <c r="M5" t="n">
+        <v>20521</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1078.199999999925</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-455.7999999999993</v>
+      </c>
+      <c r="P5" t="n">
+        <v>942.2000000000007</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.05254129915695752</v>
+      </c>
+      <c r="R5" t="n">
+        <v>42.2593042923968</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-4.599999999998545</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2088104868183812</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G6" t="n">
+        <v>80</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
         <v>35</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>40</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>-18552.09999999975</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L6" t="n">
         <v>-9711.199999999881</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M6" t="n">
         <v>19945</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N6" t="n">
         <v>-8840.899999999867</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O6" t="n">
         <v>-491.6999999999998</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>857.8999999999996</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>-0.4432639759338113</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R6" t="n">
         <v>44.71255744258725</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S6" t="n">
         <v>-6.299999999999272</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T6" t="n">
         <v>0.2141388819252946</v>
       </c>
     </row>
